--- a/Southland Trial/SysSettings.xlsx
+++ b/Southland Trial/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\Southland Trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1775968E-3978-469E-B745-57481C56E27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4894A8-C664-436C-98F5-6BE6DD2384E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12855" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="164">
   <si>
     <t>IMP*Z</t>
   </si>
@@ -617,6 +617,9 @@
   </si>
   <si>
     <t>Allows dummy variables if set to 1</t>
+  </si>
+  <si>
+    <t>~TFM_INS-txt</t>
   </si>
 </sst>
 </file>
@@ -16280,7 +16283,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16497,8 +16500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16683,7 +16686,7 @@
   <dimension ref="B3:E10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16750,7 +16753,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>162</v>
@@ -16768,8 +16771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16793,8 +16796,8 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="str">
-        <f>IF($A$1=1,"~TFM_MIG","~TFM_UPD")</f>
-        <v>~TFM_UPD</v>
+        <f>IF($A$1=1,"~TFM_MIG","~TFM_INS")</f>
+        <v>~TFM_INS</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -17281,7 +17284,7 @@
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
@@ -18391,7 +18394,7 @@
   <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Southland Trial/SysSettings.xlsx
+++ b/Southland Trial/SysSettings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\Southland Trial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\Southland Trialx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4894A8-C664-436C-98F5-6BE6DD2384E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165D498E-77D0-4F25-A50E-5AE2E0CBA85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="174">
   <si>
     <t>IMP*Z</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>Season</t>
-  </si>
-  <si>
-    <t>Weekly</t>
   </si>
   <si>
     <t>DayNite</t>
@@ -586,9 +583,6 @@
     <t>Phase1</t>
   </si>
   <si>
-    <t>Phase2</t>
-  </si>
-  <si>
     <t>Definition of regions and timeslice structure</t>
   </si>
   <si>
@@ -604,9 +598,6 @@
     <t>DAYNITE</t>
   </si>
   <si>
-    <t>PhaseII</t>
-  </si>
-  <si>
     <t>IMP*GZ</t>
   </si>
   <si>
@@ -620,6 +611,45 @@
   </si>
   <si>
     <t>~TFM_INS-txt</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>FEB</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>AUG</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly </t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1450,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1739,30 +1769,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3853">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -11835,7 +11841,7 @@
     <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -11882,9 +11888,6 @@
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11941,8 +11944,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="68" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="13" xfId="419" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -16283,209 +16284,213 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="D64" sqref="D64:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="13.85546875" style="30" customWidth="1"/>
+    <col min="1" max="5" width="13.85546875" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
-        <v>153</v>
+      <c r="A1" s="39" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="E6" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>56</v>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="E6" s="28" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="E7" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29" t="s">
-        <v>134</v>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="E7" s="28" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="E8" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="E8" s="28" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="E9" s="28" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="E10" s="28" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="E11" s="28" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="E12" s="28" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="E13" s="28" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="E14" s="28" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="E15" s="28" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="E16" s="28" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="A18" s="30"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
+      <c r="A19" s="30"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
+      <c r="A20" s="30"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
+      <c r="A21" s="30"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
+      <c r="A22" s="30"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
+      <c r="A23" s="30"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
+      <c r="A24" s="30"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
+      <c r="A25" s="30"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
+      <c r="A26" s="30"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
+      <c r="A27" s="30"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
+      <c r="A28" s="30"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
+      <c r="A29" s="30"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
+      <c r="A30" s="30"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
+      <c r="A31" s="30"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
+      <c r="A32" s="30"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
+      <c r="A33" s="30"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
+      <c r="A34" s="30"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
+      <c r="A35" s="30"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
+      <c r="A36" s="30"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
+      <c r="A37" s="30"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
+      <c r="A38" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -16498,10 +16503,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:D24"/>
+  <dimension ref="B3:B64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16511,167 +16516,255 @@
     <col min="6" max="8" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="34">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="33">
         <v>1</v>
       </c>
-      <c r="C13" s="34">
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="33">
         <v>1</v>
       </c>
-      <c r="D13" s="34">
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="34">
-        <v>2</v>
-      </c>
-      <c r="C14" s="34">
-        <v>2</v>
-      </c>
-      <c r="D14" s="34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="34">
-        <v>5</v>
-      </c>
-      <c r="C15" s="34">
-        <v>2</v>
-      </c>
-      <c r="D15" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="34">
-        <v>5</v>
-      </c>
-      <c r="C16" s="34">
-        <v>3</v>
-      </c>
-      <c r="D16" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="34">
-        <v>5</v>
-      </c>
-      <c r="C17" s="34">
-        <v>5</v>
-      </c>
-      <c r="D17" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="34">
-        <v>5</v>
-      </c>
-      <c r="C18" s="34">
-        <v>5</v>
-      </c>
-      <c r="D18" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="34">
-        <v>5</v>
-      </c>
-      <c r="C19" s="34">
-        <v>5</v>
-      </c>
-      <c r="D19" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="34">
-        <v>5</v>
-      </c>
-      <c r="C20" s="34">
-        <v>5</v>
-      </c>
-      <c r="D20" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="34">
-        <v>5</v>
-      </c>
-      <c r="C21" s="34">
-        <v>5</v>
-      </c>
-      <c r="D21" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="34">
-        <v>5</v>
-      </c>
-      <c r="C22" s="34">
-        <v>5</v>
-      </c>
-      <c r="D22" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="34">
-        <v>5</v>
-      </c>
-      <c r="C23" s="34">
-        <v>5</v>
-      </c>
-      <c r="D23" s="34"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34">
-        <v>5</v>
-      </c>
-      <c r="D24" s="34"/>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="33"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="33"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="33"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="33"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="33"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="33"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="33"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="33"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="33"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="33"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="33"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="33"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="33"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="33"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="33"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="33"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="33"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="33"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="33"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -16696,67 +16789,67 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="35" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="36" t="s">
+      <c r="C4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="39" t="s">
+    </row>
+    <row r="5" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="36" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="C5" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C6" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="37" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C7" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="37" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C8" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="38">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="38">
-        <v>0</v>
-      </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -16772,596 +16865,600 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="30" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="30"/>
-    <col min="4" max="4" width="9.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="30" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="30"/>
-    <col min="13" max="13" width="9.28515625" style="30" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="2.85546875" style="29" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="29"/>
+    <col min="4" max="4" width="9.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="29" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="29"/>
+    <col min="13" max="13" width="9.28515625" style="29" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="30">
+      <c r="A1" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B3" s="24" t="str">
+      <c r="B3" s="23" t="str">
         <f>IF($A$1=1,"~TFM_MIG","~TFM_INS")</f>
         <v>~TFM_INS</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="26" t="str">
+      <c r="E4" s="25" t="str">
         <f>IF($A$1=1,"year2","year")</f>
         <v>year</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="I4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="25" t="s">
+      <c r="K4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="L4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="M4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="N4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="25" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="29"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0</v>
+      </c>
+      <c r="F5" s="28">
+        <v>5</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28">
+        <v>3</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="29">
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="22">
         <v>0</v>
       </c>
-      <c r="F5" s="29">
-        <v>5</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="29"/>
-      <c r="C6" s="23" t="s">
+      <c r="F7" s="28">
+        <v>3</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="22">
         <v>0</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F8" s="28">
         <v>3</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="29"/>
-      <c r="C7" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="G8" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="22">
         <v>0</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F9" s="28">
         <v>3</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="23" t="s">
+      <c r="G9" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="23">
-        <v>0</v>
-      </c>
-      <c r="F8" s="29">
-        <v>3</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="23">
-        <v>0</v>
-      </c>
-      <c r="F9" s="29">
-        <v>3</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="23">
-        <v>0</v>
-      </c>
-      <c r="F10" s="29">
-        <v>0</v>
-      </c>
-      <c r="G10" s="23" t="s">
+      <c r="H10" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
     </row>
     <row r="11" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="F14" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="26" t="s">
+      <c r="K14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="L14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="26" t="s">
+      <c r="N14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="26" t="s">
+      <c r="O14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="26" t="s">
+      <c r="P14" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="26" t="s">
+      <c r="Q14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="Q14" s="26" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29">
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28">
         <v>10000</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="29" t="s">
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29">
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28">
         <v>9000</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="29" t="s">
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="D22" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="E22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="F22" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="26" t="s">
+      <c r="K22" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="L22" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="M22" s="26" t="s">
+      <c r="N22" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="N22" s="26" t="s">
+      <c r="O22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="26" t="s">
+      <c r="P22" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="P22" s="26" t="s">
+      <c r="Q22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="Q22" s="26" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="29"/>
-      <c r="C23" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28">
         <v>0</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="29"/>
-      <c r="C24" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28">
         <v>0</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="29" t="s">
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="29"/>
-      <c r="D25" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="29">
+      <c r="B25" s="28"/>
+      <c r="D25" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="28">
         <v>0</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29">
+      <c r="F25" s="28"/>
+      <c r="G25" s="28">
         <v>5</v>
       </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="29" t="s">
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
+      <c r="B27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
+      <c r="B28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="D31" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="E31" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="F31" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="J31" s="26" t="s">
+      <c r="K31" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="L31" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="L31" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="M31" s="26" t="s">
+      <c r="N31" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="26" t="s">
+      <c r="O31" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="O31" s="26" t="s">
+      <c r="P31" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="P31" s="26" t="s">
+      <c r="Q31" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="Q31" s="26" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="29" t="s">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -17373,10 +17470,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B4:K63"/>
+  <dimension ref="B4:L63"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17391,500 +17488,411 @@
     <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="22">
-        <v>2015</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
-        <v>77</v>
+      <c r="H5" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="21">
+        <v>2018</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="12">
-        <f>ROUND(K38,3)</f>
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="22" t="s">
-        <v>78</v>
+        <f>$L$9</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="12">
-        <f t="shared" ref="E9:E31" si="0">ROUND(K39,3)</f>
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="22" t="s">
-        <v>135</v>
+        <f t="shared" ref="E9:E19" si="0">$L$9</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="L9" s="4">
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="28" t="s">
+        <v>163</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="12">
         <f t="shared" si="0"/>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
-        <v>79</v>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="12">
         <f t="shared" si="0"/>
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="29"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="28"/>
       <c r="D12" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="12">
         <f t="shared" si="0"/>
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="29"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="28"/>
       <c r="D13" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="12">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="29"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="28"/>
       <c r="D14" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="12">
         <f t="shared" si="0"/>
-        <v>8.3000000000000004E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="29"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="28"/>
       <c r="D15" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="12">
         <f t="shared" si="0"/>
-        <v>0.09</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="29"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="28"/>
       <c r="D16" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="12">
         <f t="shared" si="0"/>
-        <v>8.0000000000000002E-3</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="29"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="28"/>
       <c r="D17" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="12">
         <f t="shared" si="0"/>
-        <v>3.3000000000000002E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="29"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="28"/>
       <c r="D18" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="12">
         <f t="shared" si="0"/>
-        <v>3.5999999999999997E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="29"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="28"/>
       <c r="D19" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="12">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="12">
-        <f t="shared" si="0"/>
-        <v>8.3000000000000004E-2</v>
-      </c>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="21"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="12">
-        <f t="shared" si="0"/>
-        <v>0.09</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="12">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="12">
-        <f t="shared" si="0"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="12">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="12">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="12">
-        <f t="shared" si="0"/>
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="12">
-        <f t="shared" si="0"/>
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="12">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="12">
-        <f t="shared" si="0"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="22" t="s">
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="21"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="15">
+        <v>0.97</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0.97</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="12">
-        <f>1-SUM(E8:E29,E31)</f>
-        <v>3.3999999999999919E-2</v>
-      </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="12">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="22"/>
-      <c r="C32" s="29"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="21"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="21"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="21"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="21"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="21"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="21"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="21"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="21"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="21"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="21"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="21"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="17"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="22"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="15">
-        <v>0.97</v>
-      </c>
-      <c r="G33" s="15">
-        <v>0.97</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C34"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="18"/>
-      <c r="C37" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
+      <c r="C37" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="18"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22" t="s">
-        <v>77</v>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="K38" s="11">
         <f>H39*H45*G49</f>
@@ -17892,25 +17900,25 @@
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
+      <c r="B39" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G39" s="22">
+        <v>67</v>
+      </c>
+      <c r="G39" s="21">
         <v>90</v>
       </c>
       <c r="H39" s="13">
         <f>G39/$H$43</f>
         <v>0.24657534246575341</v>
       </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22" t="s">
-        <v>78</v>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="K39" s="11">
         <f>H39*H45*H49</f>
@@ -17918,23 +17926,23 @@
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="48"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
       <c r="F40" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G40" s="22">
+        <v>68</v>
+      </c>
+      <c r="G40" s="21">
         <v>92</v>
       </c>
       <c r="H40" s="13">
         <f>G40/$H$43</f>
         <v>0.25205479452054796</v>
       </c>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22" t="s">
-        <v>135</v>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="K40" s="11">
         <f>H39*H45*I49</f>
@@ -17942,23 +17950,23 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="48"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
       <c r="F41" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="22">
+        <v>69</v>
+      </c>
+      <c r="G41" s="21">
         <v>92</v>
       </c>
       <c r="H41" s="13">
         <f>G41/$H$43</f>
         <v>0.25205479452054796</v>
       </c>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22" t="s">
-        <v>79</v>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="K41" s="11">
         <f>H39*H46*G49</f>
@@ -17966,23 +17974,23 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="48"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
       <c r="F42" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G42" s="22">
+        <v>70</v>
+      </c>
+      <c r="G42" s="21">
         <v>91</v>
       </c>
       <c r="H42" s="13">
         <f>G42/$H$43</f>
         <v>0.24931506849315069</v>
       </c>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22" t="s">
-        <v>80</v>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="K42" s="11">
         <f>H39*H46*H49</f>
@@ -17991,18 +17999,18 @@
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="18"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
       <c r="F43" s="18"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22">
+      <c r="G43" s="21"/>
+      <c r="H43" s="21">
         <f>SUM(G39:G42)</f>
         <v>365</v>
       </c>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22" t="s">
-        <v>137</v>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21" t="s">
+        <v>136</v>
       </c>
       <c r="K43" s="11">
         <f>H39*H46*I49</f>
@@ -18011,15 +18019,15 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="18"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
       <c r="F44" s="18"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22" t="s">
-        <v>81</v>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="K44" s="11">
         <f>H40*H45*G50</f>
@@ -18027,25 +18035,25 @@
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
+      <c r="B45" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
       <c r="F45" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G45" s="22">
+        <v>71</v>
+      </c>
+      <c r="G45" s="21">
         <v>261</v>
       </c>
       <c r="H45" s="13">
         <f>G45/H43</f>
         <v>0.71506849315068488</v>
       </c>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22" t="s">
-        <v>82</v>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="K45" s="11">
         <f>H40*H45*H50</f>
@@ -18053,14 +18061,14 @@
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="48"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
       <c r="F46" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G46" s="22">
+        <v>72</v>
+      </c>
+      <c r="G46" s="21">
         <f>H43-G45</f>
         <v>104</v>
       </c>
@@ -18068,9 +18076,9 @@
         <f>G46/H43</f>
         <v>0.28493150684931506</v>
       </c>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22" t="s">
-        <v>138</v>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="K46" s="11">
         <f>H40*H45*I50</f>
@@ -18079,15 +18087,15 @@
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="18"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
       <c r="F47" s="18"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22" t="s">
-        <v>83</v>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="K47" s="11">
         <f>H40*H46*G50</f>
@@ -18097,26 +18105,26 @@
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="18"/>
       <c r="C48" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>136</v>
+        <v>53</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H48" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I48" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="J48" s="22" t="s">
-        <v>84</v>
+      <c r="I48" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>83</v>
       </c>
       <c r="K48" s="11">
         <f>H40*H46*H50</f>
@@ -18124,20 +18132,20 @@
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="22">
+      <c r="B49" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="21">
         <v>11</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="21">
         <v>12</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="21">
         <v>1</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G49" s="13">
         <f t="shared" ref="G49:I52" si="1">C49/24</f>
@@ -18151,8 +18159,8 @@
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="J49" s="22" t="s">
-        <v>139</v>
+      <c r="J49" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="K49" s="11">
         <f>H40*H46*I50</f>
@@ -18160,18 +18168,18 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="48"/>
-      <c r="C50" s="22">
+      <c r="B50" s="45"/>
+      <c r="C50" s="21">
         <v>11</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="21">
         <v>12</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="21">
         <v>1</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G50" s="13">
         <f t="shared" si="1"/>
@@ -18185,8 +18193,8 @@
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="J50" s="22" t="s">
-        <v>85</v>
+      <c r="J50" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="K50" s="11">
         <f>H41*H45*G51</f>
@@ -18194,18 +18202,18 @@
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="48"/>
-      <c r="C51" s="22">
+      <c r="B51" s="45"/>
+      <c r="C51" s="21">
         <v>11</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="21">
         <v>12</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E51" s="21">
         <v>1</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="1"/>
@@ -18219,8 +18227,8 @@
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="J51" s="22" t="s">
-        <v>86</v>
+      <c r="J51" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="K51" s="11">
         <f>H41*H45*H51</f>
@@ -18228,18 +18236,18 @@
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="48"/>
-      <c r="C52" s="22">
+      <c r="B52" s="45"/>
+      <c r="C52" s="21">
         <v>11</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="21">
         <v>12</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E52" s="21">
         <v>1</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="1"/>
@@ -18253,8 +18261,8 @@
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="J52" s="22" t="s">
-        <v>140</v>
+      <c r="J52" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="K52" s="11">
         <f>H41*H45*I51</f>
@@ -18263,15 +18271,15 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="18"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
       <c r="F53" s="18"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="22" t="s">
-        <v>87</v>
+      <c r="G53" s="21"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="K53" s="11">
         <f>H41*H46*G51</f>
@@ -18280,15 +18288,15 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="14"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
       <c r="F54" s="14"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="22" t="s">
-        <v>88</v>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="21" t="s">
+        <v>87</v>
       </c>
       <c r="K54" s="11">
         <f>H41*H46*H51</f>
@@ -18297,15 +18305,15 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="14"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
       <c r="F55" s="14"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="22" t="s">
-        <v>141</v>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="K55" s="11">
         <f>H41*H46*I51</f>
@@ -18313,8 +18321,8 @@
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="J56" s="22" t="s">
-        <v>89</v>
+      <c r="J56" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="K56" s="11">
         <f>H42*H45*G52</f>
@@ -18322,8 +18330,8 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="J57" s="22" t="s">
-        <v>90</v>
+      <c r="J57" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="K57" s="11">
         <f>H42*H45*H52</f>
@@ -18331,8 +18339,8 @@
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="J58" s="22" t="s">
-        <v>142</v>
+      <c r="J58" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="K58" s="11">
         <f>H42*H45*I52</f>
@@ -18340,8 +18348,8 @@
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="J59" s="22" t="s">
-        <v>91</v>
+      <c r="J59" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="K59" s="11">
         <f>H42*H46*G52</f>
@@ -18349,8 +18357,8 @@
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="J60" s="22" t="s">
-        <v>92</v>
+      <c r="J60" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="K60" s="11">
         <f>H42*H46*H52</f>
@@ -18358,8 +18366,8 @@
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="J61" s="22" t="s">
-        <v>143</v>
+      <c r="J61" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="K61" s="11">
         <f>H42*H46*I52</f>
@@ -18367,8 +18375,8 @@
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="J63" s="28" t="s">
-        <v>99</v>
+      <c r="J63" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="K63" s="11">
         <f>SUM(K38:K61)</f>
@@ -18394,7 +18402,7 @@
   <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18420,263 +18428,263 @@
     </row>
     <row r="3" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="26" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="5" spans="2:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="E6" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="22" t="s">
+      <c r="H6" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="D7" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="22" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="22" t="s">
+      <c r="F8" s="28"/>
+      <c r="G8" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="22" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="D10" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="22" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="D11" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="22" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="D12" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="F12" s="28"/>
+      <c r="G12" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="D13" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="22" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="D14" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>133</v>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -18693,129 +18701,129 @@
   <dimension ref="B2:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
-    <col min="2" max="2" width="11.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="30"/>
-    <col min="4" max="4" width="15.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="10" style="30" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="9.140625" style="29"/>
+    <col min="2" max="2" width="11.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="29"/>
+    <col min="4" max="4" width="15.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="10" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>43</v>
+      <c r="B2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="30"/>
+      <c r="D5" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="F5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="23" t="s">
+      <c r="K5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="30"/>
+      <c r="D6" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="31"/>
-      <c r="D5" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="31"/>
-      <c r="D6" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="31"/>
+      <c r="B7" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
